--- a/Gantt_Proyecto_Volumen_De_Nivel.xlsx
+++ b/Gantt_Proyecto_Volumen_De_Nivel.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="172" documentId="8_{3FFD8B34-9C1D-4691-973D-DF6D779CE3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35C5C02D-E0B4-4E4D-B473-7899B673F083}"/>
+  <xr:revisionPtr revIDLastSave="206" documentId="8_{3FFD8B34-9C1D-4691-973D-DF6D779CE3CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F55CCE23-45BE-4A4A-A925-CE04D3BE8BCF}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-2070" windowWidth="29040" windowHeight="16440" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="47">
   <si>
     <t>Cree un diagrama de Gantt en esta hoja de cálculo.
 Escriba el título de este proyecto en la celda B1. 
@@ -203,6 +203,9 @@
   </si>
   <si>
     <t>Medición de Volumen De Agua</t>
+  </si>
+  <si>
+    <t>Julio</t>
   </si>
 </sst>
 </file>
@@ -1881,7 +1884,7 @@
   <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1893,8 +1896,8 @@
     <col min="5" max="5" width="13.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.42578125" customWidth="1"/>
     <col min="7" max="7" width="2.7109375" customWidth="1"/>
-    <col min="8" max="43" width="3.5703125" customWidth="1"/>
-    <col min="44" max="63" width="3.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="40" width="3.5703125" customWidth="1"/>
+    <col min="41" max="63" width="3.5703125" hidden="1" customWidth="1"/>
     <col min="64" max="65" width="0" hidden="1" customWidth="1"/>
     <col min="68" max="69" width="10.28515625"/>
   </cols>
@@ -2015,7 +2018,9 @@
       </c>
       <c r="AK4" s="14"/>
       <c r="AL4" s="14"/>
-      <c r="AM4" s="14"/>
+      <c r="AM4" s="14" t="s">
+        <v>46</v>
+      </c>
       <c r="AN4" s="14"/>
       <c r="AO4" s="14"/>
       <c r="AP4" s="14"/>
@@ -2601,230 +2606,233 @@
       <c r="C8" s="23"/>
       <c r="D8" s="20"/>
       <c r="E8" s="46"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="22">
+        <f>SUM(F9:F11)</f>
+        <v>9</v>
+      </c>
       <c r="G8" s="16"/>
       <c r="H8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(H$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(H$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="I8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(I$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(I$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="J8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(J$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(J$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="K8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(K$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(K$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="L8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(L$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(L$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="M8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(M$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(M$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="N8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(N$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(N$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="O8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(O$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(O$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="P8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(P$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(P$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="Q8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Q$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Q$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="R8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(R$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(R$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="S8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(S$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(S$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="T8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(T$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(T$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="U8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(U$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(U$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="V8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(V$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(V$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="W8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(W$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(W$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="X8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(X$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(X$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="Y8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Y$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Y$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="Z8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Z$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Z$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AA8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AA$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AA$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AB8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AB$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AB$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AC8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AC$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AC$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AD8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AD$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AD$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AE8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AE$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AE$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AF8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AF$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AF$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AG8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AG$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AG$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AH8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AH$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AH$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AI8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AI$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AI$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AJ8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AJ$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AJ$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AK8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AK$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AK$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AL8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AL$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AL$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AM8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AM$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AM$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AN8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AN$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AN$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AO8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AO$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AO$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AP8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AP$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AP$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AQ8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AQ$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AQ$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AR8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AR$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AR$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AS8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AS$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AS$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AT8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AT$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AT$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AU8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AU$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AU$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AV8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AV$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AV$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AW8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AW$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AW$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AX8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AX$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AX$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AY8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AY$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AY$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AZ8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AZ$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AZ$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BA8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BA$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BA$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BB8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BB$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BB$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BC8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BC$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BC$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BD8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BD$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BD$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BE8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BE$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BE$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BF8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BF$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BF$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BG8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BG$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BG$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BH8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BH$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BH$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BI8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BI$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BI$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BJ8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BJ$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BJ$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BK8" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BK$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BK$5=$E8,$F8=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -2843,7 +2851,7 @@
         <v>44713</v>
       </c>
       <c r="F9" s="22">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G9" s="16"/>
       <c r="H9" s="25" t="str">
@@ -3086,7 +3094,7 @@
         <v>44719</v>
       </c>
       <c r="F10" s="22">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="G10" s="16"/>
       <c r="H10" s="25" t="str">
@@ -3329,7 +3337,7 @@
         <v>43626</v>
       </c>
       <c r="F11" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G11" s="16"/>
       <c r="H11" s="25" t="str">
@@ -3567,230 +3575,233 @@
         <v>1</v>
       </c>
       <c r="E12" s="46"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="22">
+        <f>SUM(F13:F17)</f>
+        <v>15</v>
+      </c>
       <c r="G12" s="16"/>
       <c r="H12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(H$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(H$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="I12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(I$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(I$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="J12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(J$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(J$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="K12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(K$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(K$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="L12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(L$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(L$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="M12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(M$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(M$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="N12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(N$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(N$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="O12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(O$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(O$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="P12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(P$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(P$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="Q12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Q$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Q$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="R12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(R$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(R$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="S12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(S$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(S$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="T12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(T$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(T$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="U12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(U$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(U$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="V12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(V$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(V$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="W12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(W$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(W$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="X12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(X$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(X$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="Y12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Y$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Y$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="Z12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Z$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Z$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AA12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AA$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AA$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AB12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AB$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AB$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AC12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AC$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AC$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AD12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AD$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AD$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AE12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AE$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AE$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AF12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AF$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AF$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AG12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AG$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AG$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AH12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AH$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AH$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AI12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AI$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AI$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AJ12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AJ$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AJ$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AK12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AK$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AK$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AL12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AL$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AL$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AM12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AM$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AM$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AN12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AN$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AN$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AO12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AO$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AO$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AP12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AP$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AP$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AQ12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AQ$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AQ$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AR12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AR$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AR$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AS12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AS$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AS$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AT12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AT$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AT$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AU12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AU$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AU$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AV12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AV$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AV$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AW12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AW$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AW$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AX12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AX$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AX$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AY12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AY$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AY$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AZ12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AZ$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AZ$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BA12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BA$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BA$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BB12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BB$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BB$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BC12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BC$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BC$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BD12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BD$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BD$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BE12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BE$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BE$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BF12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BF$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BF$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BG12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BG$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BG$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BH12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BH$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BH$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BI12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BI$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BI$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BJ12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BJ$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BJ$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BK12" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BK$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BK$5=$E12,$F12=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -3809,7 +3820,7 @@
         <v>44713</v>
       </c>
       <c r="F13" s="22">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="25" t="str">
@@ -4052,7 +4063,7 @@
         <v>44720</v>
       </c>
       <c r="F14" s="22">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="G14" s="16"/>
       <c r="H14" s="25" t="str">
@@ -4295,7 +4306,7 @@
         <v>34</v>
       </c>
       <c r="F15" s="22">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="25" t="str">
@@ -4538,7 +4549,7 @@
         <v>44722</v>
       </c>
       <c r="F16" s="22">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="G16" s="16"/>
       <c r="H16" s="25" t="str">
@@ -4781,7 +4792,7 @@
         <v>44722</v>
       </c>
       <c r="F17" s="22">
-        <v>45</v>
+        <v>3</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="25" t="str">
@@ -5020,7 +5031,8 @@
       </c>
       <c r="E18" s="46"/>
       <c r="F18" s="22">
-        <v>45</v>
+        <f>SUM(F19:F22)</f>
+        <v>19</v>
       </c>
       <c r="G18" s="16"/>
       <c r="H18" s="25" t="str">
@@ -5263,7 +5275,7 @@
         <v>44732</v>
       </c>
       <c r="F19" s="22">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="25" t="str">
@@ -5506,7 +5518,7 @@
         <v>44734</v>
       </c>
       <c r="F20" s="22">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="G20" s="16"/>
       <c r="H20" s="25" t="str">
@@ -5749,7 +5761,7 @@
         <v>44737</v>
       </c>
       <c r="F21" s="22">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="25" t="str">
@@ -5992,7 +6004,7 @@
         <v>44737</v>
       </c>
       <c r="F22" s="22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="G22" s="16"/>
       <c r="H22" s="25" t="str">
@@ -6230,230 +6242,233 @@
         <v>1</v>
       </c>
       <c r="E23" s="46"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="22">
+        <f>SUM(F24:F27)</f>
+        <v>10</v>
+      </c>
       <c r="G23" s="16"/>
       <c r="H23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(H$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(H$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="I23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(I$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(I$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="J23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(J$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(J$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="K23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(K$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(K$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="L23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(L$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(L$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="M23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(M$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(M$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="N23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(N$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(N$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="O23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(O$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(O$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="P23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(P$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(P$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="Q23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Q$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Q$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="R23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(R$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(R$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="S23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(S$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(S$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="T23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(T$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(T$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="U23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(U$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(U$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="V23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(V$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(V$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="W23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(W$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(W$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="X23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(X$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(X$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="Y23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Y$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Y$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="Z23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Z$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(Z$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AA23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AA$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AA$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AB23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AB$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AB$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AC23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AC$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AC$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AD23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AD$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AD$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AE23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AE$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AE$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AF23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AF$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AF$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AG23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AG$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AG$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AH23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AH$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AH$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AI23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AI$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AI$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AJ23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AJ$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AJ$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AK23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AK$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AK$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AL23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AL$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AL$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AM23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AM$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AM$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AN23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AN$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AN$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AO23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AO$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AO$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AP23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AP$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AP$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AQ23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AQ$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AQ$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AR23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AR$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AR$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AS23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AS$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AS$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AT23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AT$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AT$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AU23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AU$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AU$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AV23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AV$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AV$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AW23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AW$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AW$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AX23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AX$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AX$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AY23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AY$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AY$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="AZ23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AZ$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AZ$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BA23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BA$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BA$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BB23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BB$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BB$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BC23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BC$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BC$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BD23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BD$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BD$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BE23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BE$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BE$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BF23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BF$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BF$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BG23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BG$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BG$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BH23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BH$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BH$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BI23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BI$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BI$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BJ23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BJ$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BJ$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
       <c r="BK23" s="25" t="str">
-        <f>IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BK$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
+        <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(BK$5=$E23,$F23=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
     </row>
@@ -6472,7 +6487,7 @@
         <v>44743</v>
       </c>
       <c r="F24" s="22">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G24" s="16"/>
       <c r="H24" s="25" t="str">
@@ -6715,7 +6730,7 @@
         <v>44743</v>
       </c>
       <c r="F25" s="22">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="25" t="str">
@@ -6958,7 +6973,7 @@
         <v>44743</v>
       </c>
       <c r="F26" s="22">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="G26" s="16"/>
       <c r="H26" s="25" t="str">
@@ -7201,7 +7216,7 @@
         <v>44744</v>
       </c>
       <c r="F27" s="22">
-        <v>30</v>
+        <v>1</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="25" t="str">
@@ -7328,9 +7343,9 @@
         <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AL$5=$E27,$F27=1),Marcador_de_hito,"")),"")</f>
         <v/>
       </c>
-      <c r="AM27" s="25" t="str">
+      <c r="AM27" s="25">
         <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AM$5=$E27,$F27=1),Marcador_de_hito,"")),"")</f>
-        <v/>
+        <v>1</v>
       </c>
       <c r="AN27" s="25" t="str">
         <f ca="1">IFERROR(IF(LEN(Hitos[[#This Row],[Número de días]])=0,"",IF(AND(AN$5=$E27,$F27=1),Marcador_de_hito,"")),"")</f>
